--- a/meta_data_web_portal/JAX_bulk_RNAseq_release2.xlsx
+++ b/meta_data_web_portal/JAX_bulk_RNAseq_release2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byu2/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/fj/5lkdkcfd6c302gdjh9wkclwm0000gp/T/MicrosoftEdgeDownloads/4b897251-914a-4128-a343-a56d173a1de5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52F2CF-712D-AA42-871E-821BF12382C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E6B0B4-C937-1C4B-A771-2125B556A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26340" yWindow="660" windowWidth="24700" windowHeight="28000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="49940" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="243">
   <si>
     <t>DAV</t>
   </si>
@@ -86,57 +86,12 @@
     <t>GOPlot</t>
   </si>
   <si>
-    <t>PrS_day_6_DLX3_PTC.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_DLX3_PTC</t>
   </si>
   <si>
-    <t>PrS_day_6_DLX3_down-regulated.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_DLX3_up-regulated.svg</t>
-  </si>
-  <si>
     <t>MAFB</t>
   </si>
   <si>
-    <t>ExM_day_6_MAFB_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_MSX2_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_NR2F2_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_VGLL1_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_hyp_ASCL2_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_hyp_ELF5_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_hyp_HIF1A_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_hyp_TP63_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_nor_ASCL2_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_nor_ELF5_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_nor_HIF1A_PTC.svg</t>
-  </si>
-  <si>
-    <t>PrS_day_6_nor_TP63_PTC.svg</t>
-  </si>
-  <si>
     <t>ASCL2</t>
   </si>
   <si>
@@ -173,9 +128,6 @@
     <t>JAX_RNAseq09.xlsx</t>
   </si>
   <si>
-    <t>CBO_day_11_HES5_PTC.svg</t>
-  </si>
-  <si>
     <t>MorPhiC_bulk_RNAseq/figures/2025_06_JAX_RNAseq09/volcano_plots</t>
   </si>
   <si>
@@ -185,87 +137,39 @@
     <t>POU3F2</t>
   </si>
   <si>
-    <t>CBO_day_11_POU3F2_PTC.svg</t>
-  </si>
-  <si>
     <t>SOX1</t>
   </si>
   <si>
-    <t>CBO_day_11_SOX1_PTC.svg</t>
-  </si>
-  <si>
     <t>EMX2</t>
   </si>
   <si>
-    <t>CBO_day_14_EMX2_PTC.svg</t>
-  </si>
-  <si>
     <t>FOXG1</t>
   </si>
   <si>
-    <t>CBO_day_8_FOXG1_PTC.svg</t>
-  </si>
-  <si>
     <t>POU3F1</t>
   </si>
   <si>
-    <t>CBO_day_8_POU3F1_PTC.svg</t>
-  </si>
-  <si>
     <t>SOX21</t>
   </si>
   <si>
-    <t>CBO_day_8_SOX21_PTC.svg</t>
-  </si>
-  <si>
     <t>SP8</t>
   </si>
   <si>
-    <t>CBO_day_9_SP8_PTC.svg</t>
-  </si>
-  <si>
     <t>LHX5</t>
   </si>
   <si>
     <t>JAX_RNAseq11.xlsx</t>
   </si>
   <si>
-    <t>CBO_day_3_CE_LHX5_CE.svg</t>
-  </si>
-  <si>
     <t>MorPhiC_bulk_RNAseq/figures/2025_06_JAX_RNAseq11/volcano_plots</t>
   </si>
   <si>
     <t>step2f_DE_testing_2025_06_JAX_RNAseq11.Rmd</t>
   </si>
   <si>
-    <t>CBO_day_3_KO_LHX5_KO.svg</t>
-  </si>
-  <si>
-    <t>CBO_day_3_PTC_LHX5_PTC.svg</t>
-  </si>
-  <si>
-    <t>CBO_day_4_CE_LHX5_CE.svg</t>
-  </si>
-  <si>
-    <t>CBO_day_4_KO_LHX5_KO.svg</t>
-  </si>
-  <si>
-    <t>CBO_day_4_PTC_LHX5_PTC.svg</t>
-  </si>
-  <si>
     <t>FEZF2</t>
   </si>
   <si>
-    <t>CBO_day_5_CE_FEZF2_CE.svg</t>
-  </si>
-  <si>
-    <t>CBO_day_5_KO_FEZF2_KO.svg</t>
-  </si>
-  <si>
-    <t>CBO_day_5_PTC_FEZF2_PTC.svg</t>
-  </si>
-  <si>
     <t>ExM_day_6_MAFB_PTC</t>
   </si>
   <si>
@@ -284,123 +188,66 @@
     <t>PrS_day_6_DLX3_up-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_ELF5_down-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_ELF5_down-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_ELF5_up-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_ELF5_up-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_Hypoxia_ASCL2_down-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_Hypoxia_ASCL2_down-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_Hypoxia_ASCL2_up-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_Hypoxia_ASCL2_up-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_Hypoxia_ELF5_down-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_Hypoxia_ELF5_down-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_Hypoxia_ELF5_up-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_Hypoxia_ELF5_up-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_Hypoxia_HIF1A_down-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_Hypoxia_HIF1A_down-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_Hypoxia_HIF1A_up-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_Hypoxia_HIF1A_up-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_MSX2_down-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_MSX2_down-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_MSX2_up-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_MSX2_up-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_NR2F2_down-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_NR2F2_down-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_NR2F2_up-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_NR2F2_up-regulated</t>
   </si>
   <si>
-    <t>PrS_day_6_VGLL1_up-regulated.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_VGLL1_up-regulated</t>
   </si>
   <si>
     <t>2025_06_JAX_RNAseq09_enrichment.rds</t>
   </si>
   <si>
-    <t>CBO_day_11_SOX1_up-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_11_SOX1_up-regulated</t>
   </si>
   <si>
     <t>MorPhiC_bulk_RNAseq/figures/2025_06_JAX_RNAseq09/goseq_plots</t>
   </si>
   <si>
-    <t>CBO_day_14_EMX2_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_14_EMX2_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_8_POU3F1_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_8_POU3F1_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_8_POU3F1_up-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_8_POU3F1_up-regulated</t>
   </si>
   <si>
-    <t>CBO_day_8_SOX21_up-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_8_SOX21_up-regulated</t>
   </si>
   <si>
-    <t>CBO_day_9_SP8_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_9_SP8_down-regulated</t>
   </si>
   <si>
@@ -413,84 +260,48 @@
     <t>2025_06_JAX_RNAseq10_enrichment.rds</t>
   </si>
   <si>
-    <t>ENDO_day_5_EOMES_KO_down-regulated.svg</t>
-  </si>
-  <si>
     <t>ENDO_day_5_EOMES_KO_down-regulated</t>
   </si>
   <si>
     <t>MorPhiC_bulk_RNAseq/figures/2025_06_JAX_RNAseq10/goseq_plots</t>
   </si>
   <si>
-    <t>ENDO_day_5_EOMES_KO_up-regulated.svg</t>
-  </si>
-  <si>
     <t>ENDO_day_5_EOMES_KO_up-regulated</t>
   </si>
   <si>
     <t>2025_06_JAX_RNAseq11_enrichment.rds</t>
   </si>
   <si>
-    <t>CBO_day_3_CE_LHX5_CE_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_3_CE_LHX5_CE_down-regulated</t>
   </si>
   <si>
     <t>MorPhiC_bulk_RNAseq/figures/2025_06_JAX_RNAseq11/goseq_plots</t>
   </si>
   <si>
-    <t>CBO_day_3_CE_LHX5_CE_up-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_3_CE_LHX5_CE_up-regulated</t>
   </si>
   <si>
-    <t>CBO_day_3_LHX5_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_3_LHX5_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_4_CE_LHX5_CE_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_4_CE_LHX5_CE_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_4_CE_LHX5_CE_up-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_4_CE_LHX5_CE_up-regulated</t>
   </si>
   <si>
-    <t>CBO_day_4_KO_LHX5_KO_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_4_KO_LHX5_KO_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_4_LHX5_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_4_LHX5_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_5_CE_FEZF2_CE_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_5_CE_FEZF2_CE_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_5_CE_FEZF2_CE_up-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_5_CE_FEZF2_CE_up-regulated</t>
   </si>
   <si>
-    <t>ENDO_day_5_EOMES_KO.svg</t>
-  </si>
-  <si>
     <t>MorPhiC_bulk_RNAseq/figures/2025_06_JAX_RNAseq10/volcano_plots</t>
   </si>
   <si>
@@ -500,15 +311,9 @@
     <t>NKX2-1</t>
   </si>
   <si>
-    <t>ENDO_day_5_NKX2-1_KO.svg</t>
-  </si>
-  <si>
     <t>ISL1</t>
   </si>
   <si>
-    <t>MESO_day_5_ISL1_PTC.svg</t>
-  </si>
-  <si>
     <t>PrS_day_6_MSX2_PTC</t>
   </si>
   <si>
@@ -641,15 +446,9 @@
     <t>2025_06_JAX_RNAseq08_ExM_day_6_MAFB_DEseq2.tsv</t>
   </si>
   <si>
-    <t>CBO_day_5_FEZF2_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_5_FEZF2_down-regulated</t>
   </si>
   <si>
-    <t>CBO_day_5_KO_FEZF2_KO_down-regulated.svg</t>
-  </si>
-  <si>
     <t>CBO_day_5_KO_FEZF2_KO_down-regulated</t>
   </si>
   <si>
@@ -711,6 +510,246 @@
   </si>
   <si>
     <t>2025_06_JAX_RNAseq11_CBO_day_5_PTC_FEZF2_DEseq2.tsv</t>
+  </si>
+  <si>
+    <t>ExM_day_6_MAFB_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_DLX3_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_MSX2_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_NR2F2_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_VGLL1_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_hyp_ASCL2_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_hyp_ELF5_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_hyp_HIF1A_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_hyp_TP63_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_nor_ASCL2_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_nor_ELF5_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_nor_HIF1A_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_nor_TP63_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_11_HES5_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_11_POU3F2_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_11_SOX1_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_14_EMX2_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_8_FOXG1_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_8_POU3F1_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_8_SOX21_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_9_SP8_PTC.png</t>
+  </si>
+  <si>
+    <t>ENDO_day_5_EOMES_KO.png</t>
+  </si>
+  <si>
+    <t>ENDO_day_5_NKX2-1_KO.png</t>
+  </si>
+  <si>
+    <t>MESO_day_5_ISL1_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_3_CE_LHX5_CE.png</t>
+  </si>
+  <si>
+    <t>CBO_day_3_KO_LHX5_KO.png</t>
+  </si>
+  <si>
+    <t>CBO_day_3_PTC_LHX5_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_4_CE_LHX5_CE.png</t>
+  </si>
+  <si>
+    <t>CBO_day_4_KO_LHX5_KO.png</t>
+  </si>
+  <si>
+    <t>CBO_day_4_PTC_LHX5_PTC.png</t>
+  </si>
+  <si>
+    <t>CBO_day_5_CE_FEZF2_CE.png</t>
+  </si>
+  <si>
+    <t>CBO_day_5_KO_FEZF2_KO.png</t>
+  </si>
+  <si>
+    <t>CBO_day_5_PTC_FEZF2_PTC.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_DLX3_down-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_DLX3_up-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_ELF5_down-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_ELF5_up-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_Hypoxia_ASCL2_down-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_Hypoxia_ASCL2_up-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_Hypoxia_ELF5_down-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_Hypoxia_ELF5_up-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_Hypoxia_HIF1A_down-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_Hypoxia_HIF1A_up-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_MSX2_down-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_MSX2_up-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_NR2F2_down-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_NR2F2_up-regulated.png</t>
+  </si>
+  <si>
+    <t>PrS_day_6_VGLL1_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_11_SOX1_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_14_EMX2_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_8_POU3F1_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_8_POU3F1_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_8_SOX21_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_9_SP8_down-regulated.png</t>
+  </si>
+  <si>
+    <t>ENDO_day_5_EOMES_KO_down-regulated.png</t>
+  </si>
+  <si>
+    <t>ENDO_day_5_EOMES_KO_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_3_CE_LHX5_CE_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_3_CE_LHX5_CE_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_3_LHX5_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_4_CE_LHX5_CE_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_4_CE_LHX5_CE_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_4_KO_LHX5_KO_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_4_LHX5_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_5_CE_FEZF2_CE_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_5_CE_FEZF2_CE_up-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_5_FEZF2_down-regulated.png</t>
+  </si>
+  <si>
+    <t>CBO_day_5_KO_FEZF2_KO_down-regulated.png</t>
+  </si>
+  <si>
+    <t>DE testing</t>
+  </si>
+  <si>
+    <t>MorPhiC_bulk_RNAseq/results/2025_06_JAX_RNAseq08/processed</t>
+  </si>
+  <si>
+    <t>MorPhiC_bulk_RNAseq/results/2025_06_JAX_RNAseq09/processed</t>
+  </si>
+  <si>
+    <t>MorPhiC_bulk_RNAseq/results/2025_06_JAX_RNAseq10/processed</t>
+  </si>
+  <si>
+    <t>MorPhiC_bulk_RNAseq/results/2025_06_JAX_RNAseq11/processed</t>
+  </si>
+  <si>
+    <t>JAX_RNAseq08_meta_data.xlsx</t>
+  </si>
+  <si>
+    <t>JAX_RNAseq09_meta_data.xlsx</t>
+  </si>
+  <si>
+    <t>JAX_RNAseq10_meta_data.xlsx</t>
+  </si>
+  <si>
+    <t>JAX_RNAseq11_meta_data.xlsx</t>
+  </si>
+  <si>
+    <t>step3_check_DE_2025_06_release_JAX_RNAseq08.Rmd</t>
+  </si>
+  <si>
+    <t>step3_check_DE_2025_06_release_JAX_RNAseq09.Rmd</t>
+  </si>
+  <si>
+    <t>step3_check_DE_2025_06_release_JAX_RNAseq10.Rmd</t>
+  </si>
+  <si>
+    <t>step3_check_DE_2025_06_release_JAX_RNAseq11.Rmd</t>
   </si>
 </sst>
 </file>
@@ -986,27 +1025,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.1640625" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
-    <col min="11" max="11" width="52" customWidth="1"/>
-    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="7" max="8" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
@@ -1055,32 +1093,32 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1099,26 +1137,26 @@
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1131,32 +1169,32 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1169,32 +1207,32 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1207,32 +1245,32 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1245,32 +1283,32 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1283,32 +1321,32 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1321,32 +1359,32 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1359,32 +1397,32 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1397,32 +1435,32 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1435,32 +1473,32 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1473,32 +1511,32 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1511,32 +1549,32 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1549,32 +1587,32 @@
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1587,32 +1625,32 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1625,32 +1663,32 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1663,32 +1701,32 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1701,32 +1739,32 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1739,32 +1777,32 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1777,32 +1815,32 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1815,32 +1853,32 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1853,32 +1891,32 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1891,32 +1929,32 @@
         <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1929,32 +1967,32 @@
         <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1967,32 +2005,32 @@
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2005,32 +2043,32 @@
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2043,32 +2081,32 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2081,32 +2119,32 @@
         <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2119,32 +2157,32 @@
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2157,32 +2195,32 @@
         <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2195,32 +2233,32 @@
         <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2233,32 +2271,32 @@
         <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2271,32 +2309,32 @@
         <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2309,32 +2347,32 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2353,26 +2391,26 @@
         <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2385,32 +2423,32 @@
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2423,32 +2461,32 @@
         <v>14</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2461,32 +2499,32 @@
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2499,32 +2537,32 @@
         <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2537,32 +2575,32 @@
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2575,32 +2613,32 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2613,32 +2651,32 @@
         <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2651,32 +2689,32 @@
         <v>14</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -2689,32 +2727,32 @@
         <v>14</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -2727,32 +2765,32 @@
         <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
         <v>106</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -2765,32 +2803,32 @@
         <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -2800,35 +2838,35 @@
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2838,35 +2876,35 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -2879,32 +2917,32 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -2917,32 +2955,32 @@
         <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -2955,32 +2993,32 @@
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -2993,32 +3031,32 @@
         <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -3031,32 +3069,32 @@
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -3069,32 +3107,32 @@
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -3107,32 +3145,32 @@
         <v>16</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -3145,32 +3183,32 @@
         <v>16</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -3180,35 +3218,35 @@
         <v>11</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -3221,32 +3259,32 @@
         <v>17</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -3259,32 +3297,32 @@
         <v>17</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -3297,32 +3335,32 @@
         <v>17</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -3335,32 +3373,32 @@
         <v>17</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -3373,32 +3411,32 @@
         <v>17</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -3411,32 +3449,32 @@
         <v>17</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -3449,32 +3487,32 @@
         <v>17</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -3487,32 +3525,32 @@
         <v>17</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -3525,32 +3563,32 @@
         <v>17</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -3560,13 +3598,13 @@
         <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
@@ -3575,39 +3613,1213 @@
         <v>12</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
